--- a/trunk/build/gui_debugger/asm.xlsx
+++ b/trunk/build/gui_debugger/asm.xlsx
@@ -11,10 +11,6 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -954,9 +950,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="121.5" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
